--- a/biology/Zoologie/Michael_Chinery/Michael_Chinery.xlsx
+++ b/biology/Zoologie/Michael_Chinery/Michael_Chinery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Chinery est un naturaliste britannique, né à Londres en 1938.
 Il fait ses études à Cambridge où il obtient ses diplômes en sciences naturelles et en anthropologie.
@@ -512,18 +524,89 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(Liste partielle)
-En français
-Insectes d'Europe en couleurs, Multiguide Nature, Bordas, 1987,  (ISBN 2-0401-2575-2). (Première édition en anglais, 1973 ; en français, 1976).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Liste partielle)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Michael_Chinery</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_Chinery</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>En français</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Insectes d'Europe en couleurs, Multiguide Nature, Bordas, 1987,  (ISBN 2-0401-2575-2). (Première édition en anglais, 1973 ; en français, 1976).
 Insectes de France et d'Europe occidentale, mai 2005, Flammarion,  (ISBN 2-0820-1375-8). (Première édition en anglais, 1986 ; en français, 1988, Arthaud,  (ISBN 2-7003-0636-8)).
 Insectes de France et d'Europe occidentale, éd. revue et augmentée (pagination conservée, 320 p.), août 2012, Flammarion,  (ISBN 978-2-0812-8823-2)
 Les papillons d'Europe, M. Chinery et M. Cuisin, Delachaux et Niestlé
 Le livre de la Nature, M. Chinery France loisirs avec autorisation des Éditions Solar, 1984
-Découvrir la nature en famille, M. Chinery PML, 1992,  (ISBN 2-87628-525-8)
-En anglais
-En plus de nombreuses contributions à diverses encyclopédies et autres publications scientifiques, il est l'auteur d’Animals in the zoo, Animal communities et Purnell's concise Encyclopedia of Nature.
+Découvrir la nature en famille, M. Chinery PML, 1992,  (ISBN 2-87628-525-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Michael_Chinery</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_Chinery</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En anglais</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En plus de nombreuses contributions à diverses encyclopédies et autres publications scientifiques, il est l'auteur d’Animals in the zoo, Animal communities et Purnell's concise Encyclopedia of Nature.
 Insects of Britain and Northern Europe, 3e édition, Collins field guide  (ISBN 0-00-219918-1)
 Insects of Britain and Western Europe, Collins Guide, 1986 (réimprimé en 1991).
 Butterflies of Britain and Europe, Collins Wildlife Trust Guides  (ISBN 978-0002200592)
